--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="TestUserLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="TestUserLogin" sheetId="2" r:id="rId1"/>
+    <sheet name="TestUserLogin1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +65,30 @@
   </si>
   <si>
     <t>RegionId不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://demo.fastadmin.net/admin/index/login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_login_password_wrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"admin","password":"123476","__token__":"9084fc223a985b93212c7aa88769e784"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"admin","password":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温馨提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +464,85 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="50.375" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -84,11 +84,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录成功!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>温馨提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://demo.fastadmin.net/admin/index/login.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,13 +464,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="50.375" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
     <col min="4" max="4" width="38.5" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="5" customWidth="1"/>
   </cols>
@@ -497,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -523,7 +523,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
